--- a/Pyomo/network/Input_Files/InputData34.xlsx
+++ b/Pyomo/network/Input_Files/InputData34.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Holandsko\Skola\Master\Year 2\Master thesis\Software\Pyomo\SOCP_RES_cabType_DG\Input_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip Forro\PycharmProjects\MasterThesis\Pyomo\network\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7BACF1-679E-43CD-94DA-183A32B1320B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93632BA2-01BF-466C-B879-3C81E0A3E146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="890" activeTab="7" xr2:uid="{C29AC206-A880-42C7-97CB-0C3D79BA6B73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="890" activeTab="2" xr2:uid="{C29AC206-A880-42C7-97CB-0C3D79BA6B73}"/>
   </bookViews>
   <sheets>
     <sheet name="LineData" sheetId="3" r:id="rId1"/>
@@ -573,12 +573,12 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -592,7 +592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -606,7 +606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -620,7 +620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -634,7 +634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -648,7 +648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -662,7 +662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -690,7 +690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -704,7 +704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -718,7 +718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -732,7 +732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -746,7 +746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -760,7 +760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -774,7 +774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -816,7 +816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -830,7 +830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -844,7 +844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -858,7 +858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -872,7 +872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -886,7 +886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -900,7 +900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -914,7 +914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -928,7 +928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -942,7 +942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -956,7 +956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7</v>
       </c>
@@ -970,7 +970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -984,7 +984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -998,7 +998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1062,15 +1062,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D19BE1F-7FF3-4617-8CC4-990DA12B4F3A}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>34</v>
       </c>
@@ -1119,32 +1119,6 @@
         <v>-300</v>
       </c>
       <c r="H2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>32</v>
-      </c>
-      <c r="B3">
-        <v>1.5</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>35</v>
-      </c>
-      <c r="E3">
-        <v>0.9</v>
-      </c>
-      <c r="F3">
-        <v>300</v>
-      </c>
-      <c r="G3">
-        <v>-300</v>
-      </c>
-      <c r="H3">
         <v>1000</v>
       </c>
     </row>
@@ -1161,9 +1135,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1177,7 +1151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1191,7 +1165,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1218,13 +1192,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C3061C-7501-402D-9903-D99F079214AE}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1241,7 +1215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1255,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1272,10 +1246,10 @@
         <v>80.7</v>
       </c>
       <c r="E3">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1289,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1306,10 +1280,10 @@
         <v>80.7</v>
       </c>
       <c r="E5">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1323,10 +1297,10 @@
         <v>80.7</v>
       </c>
       <c r="E6">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1340,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1357,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1374,10 +1348,10 @@
         <v>80.7</v>
       </c>
       <c r="E9">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1391,10 +1365,10 @@
         <v>80.7</v>
       </c>
       <c r="E10">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1408,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1425,10 +1399,10 @@
         <v>80.7</v>
       </c>
       <c r="E12">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1442,10 +1416,10 @@
         <v>47.6</v>
       </c>
       <c r="E13">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1459,10 +1433,10 @@
         <v>25.5</v>
       </c>
       <c r="E14">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1476,10 +1450,10 @@
         <v>25.5</v>
       </c>
       <c r="E15">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1493,10 +1467,10 @@
         <v>25.5</v>
       </c>
       <c r="E16">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1510,10 +1484,10 @@
         <v>4.2</v>
       </c>
       <c r="E17">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1527,10 +1501,10 @@
         <v>80.7</v>
       </c>
       <c r="E18">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1544,10 +1518,10 @@
         <v>80.7</v>
       </c>
       <c r="E19">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1561,10 +1535,10 @@
         <v>80.7</v>
       </c>
       <c r="E20">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1578,10 +1552,10 @@
         <v>80.7</v>
       </c>
       <c r="E21">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1595,10 +1569,10 @@
         <v>80.7</v>
       </c>
       <c r="E22">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1612,10 +1586,10 @@
         <v>80.7</v>
       </c>
       <c r="E23">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1629,10 +1603,10 @@
         <v>80.7</v>
       </c>
       <c r="E24">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1646,10 +1620,10 @@
         <v>80.7</v>
       </c>
       <c r="E25">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1663,10 +1637,10 @@
         <v>80.7</v>
       </c>
       <c r="E26">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1680,10 +1654,10 @@
         <v>80.7</v>
       </c>
       <c r="E27">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1697,10 +1671,10 @@
         <v>48.1</v>
       </c>
       <c r="E28">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1714,10 +1688,10 @@
         <v>27.2</v>
       </c>
       <c r="E29">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1731,10 +1705,10 @@
         <v>27.2</v>
       </c>
       <c r="E30">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1748,10 +1722,10 @@
         <v>27.2</v>
       </c>
       <c r="E31">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1765,10 +1739,10 @@
         <v>21.2</v>
       </c>
       <c r="E32">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1782,10 +1756,10 @@
         <v>21.2</v>
       </c>
       <c r="E33">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1799,10 +1773,10 @@
         <v>21.2</v>
       </c>
       <c r="E34">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1816,7 +1790,7 @@
         <v>21.2</v>
       </c>
       <c r="E35">
-        <v>500000</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -1834,9 +1808,9 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1847,7 +1821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1858,7 +1832,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1869,7 +1843,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1880,7 +1854,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1891,7 +1865,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1902,7 +1876,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1913,7 +1887,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1924,7 +1898,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1935,7 +1909,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1946,7 +1920,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1957,7 +1931,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1968,7 +1942,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1979,7 +1953,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1990,7 +1964,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2001,7 +1975,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2012,7 +1986,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2023,7 +1997,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2034,7 +2008,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2045,7 +2019,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2056,7 +2030,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2067,7 +2041,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2078,7 +2052,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2089,7 +2063,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2100,7 +2074,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2121,12 +2095,12 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2137,7 +2111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>27</v>
       </c>
@@ -2161,9 +2135,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2174,7 +2148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2185,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2196,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2207,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2218,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2229,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2240,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2251,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2262,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2273,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2284,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2295,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2306,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2317,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2328,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2339,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2350,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2361,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2372,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2383,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2394,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2405,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2416,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2427,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2451,9 +2425,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2464,7 +2438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>27</v>
       </c>
@@ -2484,13 +2458,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C7EFCC-E783-4DCB-9C5E-0A7881F61A6E}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2501,7 +2475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2512,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2523,7 +2497,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2534,7 +2508,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2545,7 +2519,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2556,7 +2530,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2567,7 +2541,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2578,7 +2552,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2589,7 +2563,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2600,7 +2574,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2611,7 +2585,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2622,7 +2596,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2633,7 +2607,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2644,7 +2618,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2655,7 +2629,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2666,7 +2640,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2677,7 +2651,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2688,7 +2662,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2699,7 +2673,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2710,7 +2684,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2721,7 +2695,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2732,7 +2706,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2743,7 +2717,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2754,7 +2728,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2772,15 +2746,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F77D7E6-0115-42F0-8134-8343530800AF}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2797,7 +2771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -2812,23 +2786,6 @@
       </c>
       <c r="E2">
         <v>0.95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>90</v>
-      </c>
-      <c r="C3">
-        <v>690</v>
-      </c>
-      <c r="D3">
-        <v>250</v>
-      </c>
-      <c r="E3">
-        <v>0.9</v>
       </c>
     </row>
   </sheetData>
